--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/word_level_predictions_42.xlsx
@@ -6193,81 +6193,81 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11474,520 +11474,520 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/word_level_predictions_42.xlsx
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -6217,57 +6217,57 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>11</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>12</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>11</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>13</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>11</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>14</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>11</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>15</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>11</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>16</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>11</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>17</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>11</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>18</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>11</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>19</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>11</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>20</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,520 +11474,520 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>12</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>5</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>12</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>12</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>12</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>8</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>12</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>9</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>12</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>12</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>12</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>12</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>13</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>12</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>14</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
